--- a/doc/colmatrix.xlsx
+++ b/doc/colmatrix.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>BT.601 RGB-&gt;YUV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BT.709 RGB-&gt;YUV</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,6 +113,10 @@
   </si>
   <si>
     <t>DCA-1D-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BT.601 RGB-&gt;YUV</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -488,12 +490,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.29899999999999999</v>
@@ -533,12 +535,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.21160000000000001</v>
@@ -574,17 +576,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0.26269999999999999</v>
@@ -597,7 +599,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -628,12 +630,12 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <f>4096/219</f>
@@ -672,15 +674,15 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <f t="array" ref="B22:D24">MMULT(B2:D4,MINVERSE(B7:D9))</f>
@@ -693,20 +695,20 @@
         <v>0.19765259767315987</v>
       </c>
       <c r="F22" s="2">
-        <f>B22*65536</f>
-        <v>65601.601601601607</v>
+        <f>B22*65536/$B$22</f>
+        <v>65536</v>
       </c>
       <c r="G22" s="2">
-        <f>C22*65536</f>
-        <v>6657.0821793545065</v>
+        <f>C22*65536/$B$22</f>
+        <v>6650.4250971751517</v>
       </c>
       <c r="H22" s="2">
-        <f>D22*65536</f>
-        <v>12953.360641108206</v>
+        <f>D22*65536/$B$22</f>
+        <v>12940.407280467096</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <f t="array" ref="K22:M24">MMULT($B$17:$D$19,MMULT(B22:D24,MINVERSE($B$17:$D$19)))</f>
@@ -742,16 +744,16 @@
         <v>-0.11065272201575617</v>
       </c>
       <c r="F23" s="3">
-        <f>B23*16384</f>
+        <f>B23*16384/$B$22</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23:G24" si="0">C23*16384</f>
-        <v>16217.764811693873</v>
+        <f>C23*16384/$B$22</f>
+        <v>16201.547046882177</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:H24" si="1">D23*16384</f>
-        <v>-1812.9341975061491</v>
+        <f>D23*16384/$B$22</f>
+        <v>-1811.1212633086427</v>
       </c>
       <c r="I23" s="1"/>
       <c r="K23">
@@ -768,11 +770,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" ref="P23:P24" si="2">L23*16384</f>
+        <f t="shared" ref="P23:P24" si="0">L23*16384</f>
         <v>16217.764811693873</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" ref="Q23:Q24" si="3">M23*16384</f>
+        <f t="shared" ref="Q23:Q24" si="1">M23*16384</f>
         <v>-1812.9341975061491</v>
       </c>
     </row>
@@ -787,16 +789,16 @@
         <v>0.9833977967464147</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ref="F24" si="4">B24*16384</f>
-        <v>2.2737367544323206E-13</v>
+        <f>B24*16384/$B$22</f>
+        <v>2.271463017677888E-13</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>-1187.0723130727436</v>
+        <f>C24*16384/$B$22</f>
+        <v>-1185.8852407596708</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
-        <v>16111.989501893258</v>
+        <f>D24*16384/$B$22</f>
+        <v>16095.877512391364</v>
       </c>
       <c r="I24" s="1"/>
       <c r="K24">
@@ -809,15 +811,15 @@
         <v>0.9833977967464147</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" ref="O24" si="5">K24*16384</f>
+        <f t="shared" ref="O24" si="2">K24*16384</f>
         <v>2.2229837018780277E-13</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-1187.0723130727436</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16111.989501893258</v>
       </c>
     </row>
@@ -829,7 +831,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -838,7 +840,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <f t="array" ref="B27:D29">MMULT(B2:D4,MINVERSE(B12:D14))</f>
@@ -864,7 +866,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27">
         <f t="array" ref="K27:M29">MMULT($B$17:$D$19,MMULT(B27:D29,MINVERSE($B$17:$D$19)))</f>
@@ -904,11 +906,11 @@
         <v>9.0949470177292824E-13</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:G29" si="6">C28*16384</f>
+        <f t="shared" ref="G28:G29" si="3">C28*16384</f>
         <v>16305.529566665467</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:H29" si="7">D28*16384</f>
+        <f t="shared" ref="H28:H29" si="4">D28*16384</f>
         <v>-975.65346538870881</v>
       </c>
       <c r="I28" s="1"/>
@@ -926,11 +928,11 @@
         <v>8.8919348075121106E-13</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:P29" si="8">L28*16384</f>
+        <f t="shared" ref="P28:P29" si="5">L28*16384</f>
         <v>16305.529566665466</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" ref="Q28:Q29" si="9">M28*16384</f>
+        <f t="shared" ref="Q28:Q29" si="6">M28*16384</f>
         <v>-975.65346538870881</v>
       </c>
     </row>
@@ -945,15 +947,15 @@
         <v>0.97651846323625335</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" ref="F29" si="10">B29*16384</f>
+        <f t="shared" ref="F29" si="7">B29*16384</f>
         <v>1.3642420526593924E-12</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-1377.6456546853003</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>15999.278501662775</v>
       </c>
       <c r="I29" s="1"/>
@@ -967,15 +969,15 @@
         <v>0.97651846323625335</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" ref="O29" si="11">K29*16384</f>
+        <f t="shared" ref="O29" si="8">K29*16384</f>
         <v>1.3337902211268165E-12</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-1377.6456546853003</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15999.278501662775</v>
       </c>
     </row>
@@ -993,7 +995,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1002,7 +1004,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <f t="array" ref="B33:D35">MMULT(B7:D9,MINVERSE(B2:D4))</f>
@@ -1015,20 +1017,20 @@
         <v>-0.21408707189097098</v>
       </c>
       <c r="F33" s="2">
-        <f>B33*65536</f>
-        <v>65470.464000000007</v>
+        <f>B33*65536/$B$33</f>
+        <v>65536</v>
       </c>
       <c r="G33" s="2">
-        <f>C33*65536</f>
-        <v>-7745.5603722466785</v>
+        <f>C33*65536/$B$33</f>
+        <v>-7753.3136859326105</v>
       </c>
       <c r="H33" s="2">
-        <f>D33*65536</f>
-        <v>-14030.410343446674</v>
+        <f>D33*65536/$B$33</f>
+        <v>-14044.454798244918</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33">
         <f t="array" ref="K33:M35">MMULT($B$17:$D$19,MMULT(B33:D35,MINVERSE($B$17:$D$19)))</f>
@@ -1064,16 +1066,16 @@
         <v>0.11461817651788755</v>
       </c>
       <c r="F34" s="3">
-        <f>B34*16384</f>
-        <v>-1.8189894035458565E-12</v>
+        <f>B34*16384/$B$33</f>
+        <v>-1.8208102137596158E-12</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G35" si="12">C34*16384</f>
-        <v>16689.393836325067</v>
+        <f>C34*16384/$B$33</f>
+        <v>16706.099936261326</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H35" si="13">D34*16384</f>
-        <v>1877.9042040690697</v>
+        <f>D34*16384/$B$33</f>
+        <v>1879.7839880571266</v>
       </c>
       <c r="I34" s="1"/>
       <c r="K34">
@@ -1090,11 +1092,11 @@
         <v>-1.7783869615024221E-12</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P35" si="14">L34*16384</f>
+        <f t="shared" ref="P34:P35" si="9">L34*16384</f>
         <v>16689.393836325067</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" ref="Q34:Q35" si="15">M34*16384</f>
+        <f t="shared" ref="Q34:Q35" si="10">M34*16384</f>
         <v>1877.9042040690697</v>
       </c>
     </row>
@@ -1109,16 +1111,16 @@
         <v>1.0253271367870529</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ref="F35" si="16">B35*16384</f>
-        <v>-1.3642420526593924E-12</v>
+        <f>B35*16384/$B$33</f>
+        <v>-1.365607660319712E-12</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="12"/>
-        <v>1229.6133474230733</v>
+        <f>C35*16384/$B$33</f>
+        <v>1230.8441916146878</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="13"/>
-        <v>16798.959809119075</v>
+        <f>D35*16384/$B$33</f>
+        <v>16815.775584703777</v>
       </c>
       <c r="I35" s="1"/>
       <c r="K35">
@@ -1131,15 +1133,15 @@
         <v>1.0253271367870529</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35" si="17">K35*16384</f>
+        <f t="shared" ref="O35" si="11">K35*16384</f>
         <v>-1.3337902211268165E-12</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1229.613347423073</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>16798.959809119075</v>
       </c>
     </row>
@@ -1151,7 +1153,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1160,7 +1162,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <f t="array" ref="B38:D40">MMULT(B12:D14,MINVERSE(B2:D4))</f>
@@ -1186,7 +1188,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38">
         <f t="array" ref="K38:M40">MMULT($B$17:$D$19,MMULT(B38:D40,MINVERSE($B$17:$D$19)))</f>
@@ -1226,11 +1228,11 @@
         <v>-1.8189894035458565E-12</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ref="G39:G40" si="18">C39*16384</f>
+        <f t="shared" ref="G39:G40" si="12">C39*16384</f>
         <v>16548.108236788401</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" ref="H39:H40" si="19">D39*16384</f>
+        <f t="shared" ref="H39:H40" si="13">D39*16384</f>
         <v>1009.1217016549882</v>
       </c>
       <c r="I39" s="1"/>
@@ -1248,11 +1250,11 @@
         <v>-1.7783869615024221E-12</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" ref="P39:P40" si="20">L39*16384</f>
+        <f t="shared" ref="P39:P40" si="14">L39*16384</f>
         <v>16548.108236788401</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" ref="Q39:Q40" si="21">M39*16384</f>
+        <f t="shared" ref="Q39:Q40" si="15">M39*16384</f>
         <v>1009.1217016549882</v>
       </c>
     </row>
@@ -1267,15 +1269,15 @@
         <v>1.029349655529834</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40" si="22">B40*16384</f>
+        <f t="shared" ref="F40" si="16">B40*16384</f>
         <v>-1.9326762412674725E-12</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1424.9035919528667</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>16864.864756200801</v>
       </c>
       <c r="I40" s="1"/>
@@ -1289,15 +1291,15 @@
         <v>1.029349655529834</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40" si="23">K40*16384</f>
+        <f t="shared" ref="O40" si="17">K40*16384</f>
         <v>-1.8895361465963233E-12</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1424.9035919528667</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>16864.864756200801</v>
       </c>
     </row>
